--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV124-001 - Profile Reksa - Investasi - Reksadana Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV124-001 - Profile Reksa - Investasi - Reksadana Ubah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6852B5-9F5D-4F0F-9673-6960FA477E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A449B4D-0EBE-4D38-A263-32521338BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,14 +112,14 @@
     <t>Normal - Investasi - Reksadana</t>
   </si>
   <si>
+    <t>RD00015</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 18/19/20/21 - Pimpinan Kelompok Investasi/Pengelolan Investasi/Analis;
-Kode Reksadana : Hasil Generate;
+Kode Reksadana : RD00015;
 Nama Reksadana : Reksadana BNI-QAO Syariah</t>
-  </si>
-  <si>
-    <t>RD00014</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>31246</v>
@@ -646,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="5" t="s">
